--- a/Деталізація рахунків (2).xlsx
+++ b/Деталізація рахунків (2).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_92488C7D80CF60A3EC25629B8D3E8C185103838F" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karavaieva\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD4450-8978-45C8-A672-EDD9707C6188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Підрозділ</t>
   </si>
@@ -132,16 +137,34 @@
   </si>
   <si>
     <t>деталізація в тому ж файлі в іншому документі</t>
+  </si>
+  <si>
+    <t>909 / 602</t>
+  </si>
+  <si>
+    <t>910 / 602</t>
+  </si>
+  <si>
+    <t>911 / 602</t>
+  </si>
+  <si>
+    <t>912 / 602</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,22 +518,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>906</v>
       </c>
@@ -544,7 +567,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1">
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -555,7 +587,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>908</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -566,7 +607,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>909</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -577,7 +627,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -585,7 +644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56.25" customHeight="1">
+    <row r="7" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>605</v>
       </c>
@@ -608,7 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -622,7 +681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>909</v>
       </c>
@@ -642,7 +701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>507</v>
       </c>
@@ -665,7 +724,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>508</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
@@ -673,7 +741,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>509</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -684,7 +761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -698,7 +775,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -709,7 +795,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -717,7 +812,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -728,7 +832,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="30">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -740,6 +853,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>